--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/43782163/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/43782163/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9938811063766479</v>
+        <v>0.936738133430481</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9923027753829956</v>
+        <v>0.927865743637085</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9929319620132446</v>
+        <v>0.9327730536460876</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8960631489753723</v>
+        <v>0.395243763923645</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9931448698043823</v>
+        <v>0.9327260851860046</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9935945868492126</v>
+        <v>0.9352887868881226</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9944224953651428</v>
+        <v>0.9404208064079285</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9936034083366394</v>
+        <v>0.9354067444801331</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9944224953651428</v>
+        <v>0.9404208064079285</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9945142269134521</v>
+        <v>0.9410746693611145</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9948050379753113</v>
+        <v>0.9430021643638611</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9780202507972717</v>
+        <v>0.8401865363121033</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9941205382347107</v>
+        <v>0.9386385679244995</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9937870502471924</v>
+        <v>0.9354768395423889</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9930320978164673</v>
+        <v>0.9319819211959839</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9932041168212891</v>
+        <v>0.9328594207763672</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6429055333137512</v>
+        <v>0.2564980983734131</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9939306974411011</v>
+        <v>0.9373869299888611</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9947713017463684</v>
+        <v>0.9425406455993652</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9935410022735596</v>
+        <v>0.9348462224006653</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9941502213478088</v>
+        <v>0.9384776949882507</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9939119815826416</v>
+        <v>0.9373198747634888</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9941703081130981</v>
+        <v>0.9388442635536194</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9104527235031128</v>
+        <v>0.405119001865387</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5442572236061096</v>
+        <v>0.2181210666894913</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.993913471698761</v>
+        <v>0.9370839595794678</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9923027753829956</v>
+        <v>0.927865743637085</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9936361312866211</v>
+        <v>0.9355937242507935</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.993169903755188</v>
+        <v>0.93281090259552</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9922881126403809</v>
+        <v>0.9280098676681519</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9937136769294739</v>
+        <v>0.9359756708145142</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9666070938110352</v>
+        <v>0.6122602820396423</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9786520600318909</v>
+        <v>0.8417853116989136</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.974756121635437</v>
+        <v>0.8261433243751526</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9936150312423706</v>
+        <v>0.9356656074523926</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9764097929000854</v>
+        <v>0.8336097002029419</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.994462788105011</v>
+        <v>0.9406533241271973</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9235490560531616</v>
+        <v>0.6971070170402527</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.967043936252594</v>
+        <v>0.6154367327690125</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9945074915885925</v>
+        <v>0.9410227537155151</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9725936055183411</v>
+        <v>0.822385847568512</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9636489152908325</v>
+        <v>0.6028137803077698</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9710186719894409</v>
+        <v>0.8130971789360046</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9688485860824585</v>
+        <v>0.6211016178131104</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9648687243461609</v>
+        <v>0.6074587106704712</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6658853888511658</v>
+        <v>0.2914305925369263</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9639819860458374</v>
+        <v>0.6040599942207336</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9948118925094604</v>
+        <v>0.9430990815162659</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.956436812877655</v>
+        <v>0.5805664658546448</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9401796460151672</v>
+        <v>0.5461083054542542</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9922516942024231</v>
+        <v>0.9278374314308167</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.956436812877655</v>
+        <v>0.5805664658546448</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9561560750007629</v>
+        <v>0.578647255897522</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9935786724090576</v>
+        <v>0.9351706504821777</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9945640563964844</v>
+        <v>0.9412266612052917</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9947590231895447</v>
+        <v>0.942628026008606</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9754309058189392</v>
+        <v>0.8287730813026428</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.994825005531311</v>
+        <v>0.942946195602417</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9943788647651672</v>
+        <v>0.9399812817573547</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9944842457771301</v>
+        <v>0.9407974481582642</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9943279623985291</v>
+        <v>0.9397062063217163</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9717589616775513</v>
+        <v>0.8161209225654602</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7372952699661255</v>
+        <v>0.5853645205497742</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9751274585723877</v>
+        <v>0.8285609483718872</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9751274585723877</v>
+        <v>0.8285609483718872</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9718091487884521</v>
+        <v>0.8160122036933899</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9751274585723877</v>
+        <v>0.8285609483718872</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9544897079467773</v>
+        <v>0.5109925866127014</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9935731291770935</v>
+        <v>0.9352951645851135</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9725364446640015</v>
+        <v>0.8231181502342224</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9907159805297852</v>
+        <v>0.9197651743888855</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.976885199546814</v>
+        <v>0.8353293538093567</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9941778182983398</v>
+        <v>0.9389627575874329</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9931443929672241</v>
+        <v>0.9325810670852661</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.976885199546814</v>
+        <v>0.8353293538093567</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9922648668289185</v>
+        <v>0.9280180931091309</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.976885199546814</v>
+        <v>0.8353293538093567</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9939516186714172</v>
+        <v>0.9374532103538513</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9768881797790527</v>
+        <v>0.8345884680747986</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9923582673072815</v>
+        <v>0.9281520843505859</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9768881797790527</v>
+        <v>0.8345884680747986</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9923166036605835</v>
+        <v>0.9278035759925842</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9923166036605835</v>
+        <v>0.9278035759925842</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.994873583316803</v>
+        <v>0.9433838725090027</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9779216647148132</v>
+        <v>0.8391528129577637</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9938703775405884</v>
+        <v>0.9370294213294983</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9770814776420593</v>
+        <v>0.8361942768096924</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9922617673873901</v>
+        <v>0.9278444051742554</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9941260814666748</v>
+        <v>0.9385437369346619</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.994124710559845</v>
+        <v>0.9384883046150208</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9941249489784241</v>
+        <v>0.9385331273078918</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9941186904907227</v>
+        <v>0.9384583234786987</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9941219687461853</v>
+        <v>0.9384375810623169</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9941180944442749</v>
+        <v>0.9384691715240479</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.994712233543396</v>
+        <v>0.9422195553779602</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7091113924980164</v>
+        <v>0.2874729037284851</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9947355389595032</v>
+        <v>0.9424342513084412</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9562307596206665</v>
+        <v>0.7644330859184265</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9936078786849976</v>
+        <v>0.9354560971260071</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9938806295394897</v>
+        <v>0.9369033575057983</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8311269879341125</v>
+        <v>0.3377163708209991</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9612963199615479</v>
+        <v>0.5934503078460693</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9930978417396545</v>
+        <v>0.9326324462890625</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9559534192085266</v>
+        <v>0.5101445913314819</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9935967922210693</v>
+        <v>0.9354554414749146</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9644715785980225</v>
+        <v>0.603148341178894</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9169631600379944</v>
+        <v>0.4096278548240662</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.993980884552002</v>
+        <v>0.937543511390686</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9923027753829956</v>
+        <v>0.927865743637085</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.966752290725708</v>
+        <v>0.6127119064331055</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9635000228881836</v>
+        <v>0.6021270155906677</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9784325361251831</v>
+        <v>0.8425021171569824</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9943503737449646</v>
+        <v>0.9398550987243652</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.977652907371521</v>
+        <v>0.8400847315788269</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9921301007270813</v>
+        <v>0.9277184009552002</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9930287003517151</v>
+        <v>0.932040810585022</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7961329221725464</v>
+        <v>0.338081955909729</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9176243543624878</v>
+        <v>0.7221528887748718</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9923027753829956</v>
+        <v>0.927865743637085</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9549238681793213</v>
+        <v>0.5109521150588989</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.994712233543396</v>
+        <v>0.9423898458480835</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9549238681793213</v>
+        <v>0.5109521150588989</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.994712233543396</v>
+        <v>0.9423898458480835</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9549238681793213</v>
+        <v>0.5109521150588989</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9946824908256531</v>
+        <v>0.942244291305542</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7547752261161804</v>
+        <v>0.3266651332378387</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9923027753829956</v>
+        <v>0.927865743637085</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9913341403007507</v>
+        <v>0.9227928519248962</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7369771003723145</v>
+        <v>0.2910198271274567</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.993133544921875</v>
+        <v>0.9325647950172424</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5024304389953613</v>
+        <v>0.2306307256221771</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9930817484855652</v>
+        <v>0.9321767091751099</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9941521286964417</v>
+        <v>0.9390062689781189</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9936072826385498</v>
+        <v>0.9355659484863281</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9908484220504761</v>
+        <v>0.9212969541549683</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9931612014770508</v>
+        <v>0.9326558709144592</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9931133389472961</v>
+        <v>0.932162344455719</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9931793212890625</v>
+        <v>0.9326403141021729</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9923924207687378</v>
+        <v>0.9283912181854248</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9941154718399048</v>
+        <v>0.9395896196365356</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9923027753829956</v>
+        <v>0.927865743637085</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9749853014945984</v>
+        <v>0.8268090486526489</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.99430251121521</v>
+        <v>0.939629077911377</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9749853014945984</v>
+        <v>0.8268090486526489</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9922612309455872</v>
+        <v>0.9276479482650757</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9544897079467773</v>
+        <v>0.5109925866127014</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9938886165618896</v>
+        <v>0.9371762275695801</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.975688636302948</v>
+        <v>0.8306609988212585</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8965653777122498</v>
+        <v>0.3997921347618103</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9923027753829956</v>
+        <v>0.927865743637085</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7775493264198303</v>
+        <v>0.3036101758480072</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.994610071182251</v>
+        <v>0.9415677785873413</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9169792532920837</v>
+        <v>0.4094492495059967</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9941923022270203</v>
+        <v>0.9388599991798401</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9174680113792419</v>
+        <v>0.4087797701358795</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9943448305130005</v>
+        <v>0.9398180246353149</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9177572727203369</v>
+        <v>0.4094999432563782</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9944189786911011</v>
+        <v>0.9403567910194397</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9688762426376343</v>
+        <v>0.8037295341491699</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9939067959785461</v>
+        <v>0.9370477795600891</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9937307834625244</v>
+        <v>0.9375022649765015</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9931780099868774</v>
+        <v>0.9326958060264587</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.974351704120636</v>
+        <v>0.8259676694869995</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.994684636592865</v>
+        <v>0.9421424269676208</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9672558903694153</v>
+        <v>0.79859858751297</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9605823159217834</v>
+        <v>0.5915269255638123</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9784045815467834</v>
+        <v>0.841298520565033</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9923027753829956</v>
+        <v>0.927865743637085</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9605823159217834</v>
+        <v>0.5915269255638123</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9772288799285889</v>
+        <v>0.8367290496826172</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9923027753829956</v>
+        <v>0.927865743637085</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9931241869926453</v>
+        <v>0.932559609413147</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9931491017341614</v>
+        <v>0.9324833154678345</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9931241869926453</v>
+        <v>0.932559609413147</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9931241869926453</v>
+        <v>0.932559609413147</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9931491017341614</v>
+        <v>0.9324833154678345</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9939355254173279</v>
+        <v>0.9372904300689697</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9908310174942017</v>
+        <v>0.9203192591667175</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9931243062019348</v>
+        <v>0.9323748350143433</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9939709901809692</v>
+        <v>0.9375013113021851</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9935744404792786</v>
+        <v>0.9351010322570801</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9568619728088379</v>
+        <v>0.5143671035766602</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9943736791610718</v>
+        <v>0.9401226043701172</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9943643808364868</v>
+        <v>0.9400134682655334</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9944477081298828</v>
+        <v>0.9405380487442017</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9944463968276978</v>
+        <v>0.9405058026313782</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9939232468605042</v>
+        <v>0.9372223615646362</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.994080126285553</v>
+        <v>0.9381487369537354</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9940804839134216</v>
+        <v>0.9381355047225952</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.691461980342865</v>
+        <v>0.2649655044078827</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9936445951461792</v>
+        <v>0.9354954361915588</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9931869506835938</v>
+        <v>0.9327622652053833</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9511808753013611</v>
+        <v>0.5025718808174133</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9675860404968262</v>
+        <v>0.6169086694717407</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9943931102752686</v>
+        <v>0.9402450919151306</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9944705963134766</v>
+        <v>0.9405908584594727</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.99457848072052</v>
+        <v>0.9411963224411011</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9938790798187256</v>
+        <v>0.9369912147521973</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9288290143013</v>
+        <v>0.7364824414253235</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9938746094703674</v>
+        <v>0.9370431303977966</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9939882755279541</v>
+        <v>0.9377731680870056</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9931641221046448</v>
+        <v>0.9328203201293945</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.960746705532074</v>
+        <v>0.5927945971488953</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.994632363319397</v>
+        <v>0.9417206048965454</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9930860996246338</v>
+        <v>0.9322007298469543</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7137693762779236</v>
+        <v>0.280640035867691</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9907854795455933</v>
+        <v>0.9200636744499207</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5926762223243713</v>
+        <v>0.2339149117469788</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9930920600891113</v>
+        <v>0.9322335124015808</v>
       </c>
     </row>
   </sheetData>
